--- a/excelfiles/book1.xlsx
+++ b/excelfiles/book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\OneDrive\Documents\UiPath\RPA_Pracs\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F38004A-B396-4542-AB0A-18EC74862B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0BC49E-9CDB-4CAD-8E4F-DA604A419189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+  <si>
+    <t>INV-3337</t>
+  </si>
+  <si>
+    <t>Total Due $93.50</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="A3:C6"/>
@@ -350,29 +357,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42394</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42394</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42394</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42394</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
   </sheetData>
